--- a/Team Report_Rafif, Maha, Saloni.xlsx
+++ b/Team Report_Rafif, Maha, Saloni.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafifarab/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salonisetia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16920" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,6 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="183">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -610,6 +607,9 @@
   </si>
   <si>
     <t>SSW-555-GEDCOM</t>
+  </si>
+  <si>
+    <t>ssetia@stevens.edu</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -757,6 +757,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="55"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="55" applyFill="1"/>
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -891,11 +892,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="722014832"/>
-        <c:axId val="722017568"/>
+        <c:axId val="-2080174672"/>
+        <c:axId val="-2121342784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="722014832"/>
+        <c:axId val="-2080174672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -905,14 +906,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="722017568"/>
+        <c:crossAx val="-2121342784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="722017568"/>
+        <c:axId val="-2121342784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -923,7 +924,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="722014832"/>
+        <c:crossAx val="-2080174672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1370,7 +1371,9 @@
       <c r="C5" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="14" t="s">
+        <v>182</v>
+      </c>
       <c r="E5" t="s">
         <v>175</v>
       </c>
@@ -1391,6 +1394,7 @@
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1624,7 +1628,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1703,8 +1707,12 @@
       <c r="D3" t="s">
         <v>180</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="13">
+        <v>100</v>
+      </c>
+      <c r="F3" s="13">
+        <v>240</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
@@ -1739,8 +1747,12 @@
       <c r="D5" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="E5" s="13">
+        <v>100</v>
+      </c>
+      <c r="F5" s="13">
+        <v>240</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">

--- a/Team Report_Rafif, Maha, Saloni.xlsx
+++ b/Team Report_Rafif, Maha, Saloni.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafifarab/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salonisetia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="4040" yWindow="460" windowWidth="28560" windowHeight="16460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,6 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="216">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -613,6 +610,108 @@
   </si>
   <si>
     <t>ssetia@stevens.edu</t>
+  </si>
+  <si>
+    <t>T03.01</t>
+  </si>
+  <si>
+    <t>Store birth date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T03.02</t>
+  </si>
+  <si>
+    <t>Store death date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T03.03</t>
+  </si>
+  <si>
+    <t>Compare birth and death dates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T01.01</t>
+  </si>
+  <si>
+    <t>T01.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find dates (birth, marriage, divorce, death) </t>
+  </si>
+  <si>
+    <t>Compare date and current date</t>
+  </si>
+  <si>
+    <t>T07.01</t>
+  </si>
+  <si>
+    <t>T07.02</t>
+  </si>
+  <si>
+    <t>Store current age of every individual</t>
+  </si>
+  <si>
+    <t>T27.01</t>
+  </si>
+  <si>
+    <t>Store name of every individual</t>
+  </si>
+  <si>
+    <t>Store birthdate of every individual</t>
+  </si>
+  <si>
+    <t>Compare name and birthdate of every new inidvidual with existing records</t>
+  </si>
+  <si>
+    <t>T23.01</t>
+  </si>
+  <si>
+    <t>T23.02</t>
+  </si>
+  <si>
+    <t>T23.03</t>
+  </si>
+  <si>
+    <t>Store birth date of every individual</t>
+  </si>
+  <si>
+    <t>Store death date of every dead individual</t>
+  </si>
+  <si>
+    <t>T07.03</t>
+  </si>
+  <si>
+    <t>T07.04</t>
+  </si>
+  <si>
+    <t>Compare death date and birth date for dead individuals(difference should be less than 150)</t>
+  </si>
+  <si>
+    <t>Compare birthdate and current date for living individuals(difference should be less than 150)</t>
+  </si>
+  <si>
+    <t>T29.01</t>
+  </si>
+  <si>
+    <t>Find every individual with a death date</t>
+  </si>
+  <si>
+    <t>Store their name in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>T29.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting twice every week. </t>
+  </si>
+  <si>
+    <t>Missing deadlines</t>
+  </si>
+  <si>
+    <t>Commiting progress to github</t>
   </si>
 </sst>
 </file>
@@ -729,7 +828,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -754,6 +853,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="55"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="55" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -888,11 +994,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="727210864"/>
-        <c:axId val="727239040"/>
+        <c:axId val="-2074766912"/>
+        <c:axId val="-2074460704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="727210864"/>
+        <c:axId val="-2074766912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,14 +1008,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="727239040"/>
+        <c:crossAx val="-2074460704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="727239040"/>
+        <c:axId val="-2074460704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,7 +1026,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="727210864"/>
+        <c:crossAx val="-2074766912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1294,7 +1400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1621,16 +1727,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
@@ -1691,94 +1797,36 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>240</v>
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>240</v>
-      </c>
+      <c r="A6" s="14"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B7" t="s">
-        <v>104</v>
+        <v>122</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
         <v>180</v>
@@ -1790,22 +1838,251 @@
         <v>240</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+    </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B9" s="5" t="s">
+      <c r="A9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+      <c r="A15" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+      <c r="A16" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="52" x14ac:dyDescent="0.15">
+      <c r="A17" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="52" x14ac:dyDescent="0.15">
+      <c r="A18" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+      <c r="A24" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" t="s">
+        <v>180</v>
+      </c>
+      <c r="E26">
+        <v>100</v>
+      </c>
+      <c r="F26">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="4"/>
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="14"/>
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="4"/>
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+      <c r="A32" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="5" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="5" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B38" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B39" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="5" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B42" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -1955,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
